--- a/biology/Botanique/Cabombaceae/Cabombaceae.xlsx
+++ b/biology/Botanique/Cabombaceae/Cabombaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cabombacées est une famille de plantes angiospermes primitives.
 Ce sont des plantes aquatiques, rhizomateuses, à feuilles submergées ou flottantes, des régions tempérées à tropicales (sauf en Europe).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Cabomba qui serait un nom vernaculaire aborigène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Cabomba qui serait un nom vernaculaire aborigène.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suivant la classification phylogénétique APG II (2003)[2] cette famille est de divergence ancienne et ne fait pas partie des vraies dicotylédones. La famille peut optionnellement être incluse dans les Nymphaeaceae.
-En classification phylogénétique APG III (2009)[3] cette famille est placée dans l'ordre Nymphaeales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant la classification phylogénétique APG II (2003) cette famille est de divergence ancienne et ne fait pas partie des vraies dicotylédones. La famille peut optionnellement être incluse dans les Nymphaeaceae.
+En classification phylogénétique APG III (2009) cette famille est placée dans l'ordre Nymphaeales.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (27 mars 2010)[4], World Checklist of Selected Plant Families (WCSP)  (27 mars 2010)[5], ITIS      (27 mars 2010)[6], NCBI  (27 mars 2010)[7] et DELTA Angio           (27 mars 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (27 mars 2010), World Checklist of Selected Plant Families (WCSP)  (27 mars 2010), ITIS      (27 mars 2010), NCBI  (27 mars 2010) et DELTA Angio           (27 mars 2010) :
 genre Brasenia Schreb. (1789)
 genre Cabomba Aubl. (1775)</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 mars 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 mars 2010) :
 genre Brasenia Schreb. (1789)
 Brasenia schreberi  J.F.Gmel. (1791)
 genre Cabomba Aubl. (1775)
@@ -618,7 +638,7 @@
 Cabomba furcata  Schult. &amp; Schult.f. (1830)
 Cabomba haynesii  Wiersema (1989)
 Cabomba paliformis  Fassett (1953)
-Selon ITIS      (27 mars 2010)[6] :
+Selon ITIS      (27 mars 2010) :
 genre Brasenia Schreb.
 Brasenia schreberi J.F. Gmel.
 genre Cabomba Aubl.
@@ -626,7 +646,7 @@
 Cabomba furcata J.A. &amp; J.H. Schultes
 Cabomba haynesii Wiersema
 Cabomba palaeformis Fassett
-Selon NCBI  (27 mars 2010)[7] :
+Selon NCBI  (27 mars 2010) :
 genre Brasenia
 Brasenia schreberi
 genre Cabomba
